--- a/02 - Base de données/02 - Création d'une base de données/Remplir les tables/stagiaireAfpa.xlsx
+++ b/02 - Base de données/02 - Création d'une base de données/Remplir les tables/stagiaireAfpa.xlsx
@@ -9,17 +9,30 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="stagiaireafpa" sheetId="1" r:id="rId1"/>
+    <sheet name="Stagiaires" sheetId="6" r:id="rId2"/>
+    <sheet name="Animations" sheetId="7" r:id="rId3"/>
+    <sheet name="Matieres" sheetId="8" r:id="rId4"/>
+    <sheet name="Constitutions" sheetId="9" r:id="rId5"/>
+    <sheet name="Suivis" sheetId="10" r:id="rId6"/>
+    <sheet name="Formations" sheetId="5" r:id="rId7"/>
+    <sheet name="Hebergements" sheetId="4" r:id="rId8"/>
+    <sheet name="Groupes" sheetId="3" r:id="rId9"/>
+    <sheet name="Formateurs" sheetId="2" r:id="rId10"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Animations!$A$2:$B$19</definedName>
+    <definedName name="_xlnm.Extract" localSheetId="2">Animations!#REF!</definedName>
+  </definedNames>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="451" uniqueCount="127">
   <si>
     <t>adresse</t>
   </si>
@@ -331,6 +344,75 @@
   </si>
   <si>
     <t>Hebergement</t>
+  </si>
+  <si>
+    <t>idFormateur</t>
+  </si>
+  <si>
+    <t>NomFormateur</t>
+  </si>
+  <si>
+    <t>PrenomFormateur</t>
+  </si>
+  <si>
+    <t>idGroupe</t>
+  </si>
+  <si>
+    <t>LibelleGroupe</t>
+  </si>
+  <si>
+    <t>idHerbergement</t>
+  </si>
+  <si>
+    <t>LibelleHebergement</t>
+  </si>
+  <si>
+    <t>idFormation</t>
+  </si>
+  <si>
+    <t>LibelleFormation</t>
+  </si>
+  <si>
+    <t>idStagiaire</t>
+  </si>
+  <si>
+    <t>dateEntreeCorrecte</t>
+  </si>
+  <si>
+    <t>dateDeNaissanceCorrecte</t>
+  </si>
+  <si>
+    <t>idHebergement</t>
+  </si>
+  <si>
+    <t>formation</t>
+  </si>
+  <si>
+    <t>idMatiere</t>
+  </si>
+  <si>
+    <t>LibelleMatiere</t>
+  </si>
+  <si>
+    <t>Math</t>
+  </si>
+  <si>
+    <t>Français</t>
+  </si>
+  <si>
+    <t>Sport</t>
+  </si>
+  <si>
+    <t>idConstitution</t>
+  </si>
+  <si>
+    <t>idSuivis</t>
+  </si>
+  <si>
+    <t>note</t>
+  </si>
+  <si>
+    <t>date aléatoire de 800 jours à partir d'aujourd'hui</t>
   </si>
 </sst>
 </file>
@@ -338,7 +420,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
   <fonts count="18" x14ac:knownFonts="1">
     <font>
@@ -657,7 +739,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="16">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -860,6 +942,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -905,7 +996,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -916,7 +1007,12 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20 % - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1240,8 +1336,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K23" sqref="K23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J2" sqref="J2:K19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2076,25 +2172,3107 @@
         <v>85</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="I22" t="str">
-        <f>"insert " &amp; YEAR(I19) &amp;"-" &amp; MONTH(I19) &amp; "-" &amp; DAY(I19)</f>
-        <v>insert 1997-4-3</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="I23" t="str">
-        <f>TEXT(I19,"aaaa-mm-jj")</f>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K27" s="10"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:C1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="54.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="C2" s="11">
+        <v>1</v>
+      </c>
+      <c r="D2" t="str">
+        <f>"insert into formateurs values (null,""" &amp; A2 &amp; """,""" &amp;B2 &amp; """);"</f>
+        <v>insert into formateurs values (null,"Poix","Martine");</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="C3" s="11">
+        <v>2</v>
+      </c>
+      <c r="D3" t="str">
+        <f t="shared" ref="D3:D5" si="0">"insert into formateurs values (null,""" &amp; A3 &amp; """,""" &amp;B3 &amp; """);"</f>
+        <v>insert into formateurs values (null,"Dubois","Thomas");</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="C4" s="11">
+        <v>3</v>
+      </c>
+      <c r="D4" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into formateurs values (null,"Butterdroghe","Hervé");</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="C5" s="11">
+        <v>4</v>
+      </c>
+      <c r="D5" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into formateurs values (null,"Batzic","Jean Paul");</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:S27"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="S4" sqref="S4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" customWidth="1"/>
+    <col min="9" max="9" width="5.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="24.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="J1" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="K1" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="L1" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="M1" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="N1" s="12" t="s">
+        <v>114</v>
+      </c>
+      <c r="O1" s="13" t="s">
+        <v>115</v>
+      </c>
+      <c r="P1" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="Q1" s="13" t="s">
+        <v>104</v>
+      </c>
+      <c r="R1" s="13" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="4">
+        <v>62100</v>
+      </c>
+      <c r="G2" s="4">
+        <v>21345678</v>
+      </c>
+      <c r="H2" s="5">
+        <v>41883</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="J2" s="5">
+        <v>34713</v>
+      </c>
+      <c r="K2" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="L2" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="M2" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="N2" t="str">
+        <f>TEXT(H2,"aaaa-mm-jj")</f>
+        <v>2014-09-01</v>
+      </c>
+      <c r="O2" t="str">
+        <f>TEXT(J2,"aaaa-mm-jj")</f>
+        <v>1995-01-14</v>
+      </c>
+      <c r="P2">
+        <f>VLOOKUP(K2,Formations!$A$1:$B$6,2,0)</f>
+        <v>5</v>
+      </c>
+      <c r="Q2">
+        <f>VLOOKUP(L2,Formateurs!$B$2:$C$5,2,0)</f>
+        <v>2</v>
+      </c>
+      <c r="R2">
+        <f>VLOOKUP(M2,Hebergements!$A$2:$B$3,2,0)</f>
+        <v>2</v>
+      </c>
+      <c r="S2" t="str">
+        <f>"INSERT INTO `stagiaires`(`idStagiaire`, `nomStagiaire`, `prenomStagiaire`, `adresseStagiaire`, `ville`, `codePostal`, `telStagiaire`, `dateEntree`, `SexeStagiaire`, `dateNaissance`, `idFormation`, `idFormateur`, `idHebergement`) VALUES ("&amp;A2&amp;","""&amp;B2&amp;""","""&amp;C2&amp;""","""&amp;D2&amp;""","""&amp;E2&amp;""","&amp;F2&amp;","""&amp;G2&amp;""","""&amp;N2&amp;""","""&amp;I2&amp;""","""&amp;O2&amp;""","&amp;P2&amp;","&amp;Q2&amp;","&amp;R2&amp;");"</f>
+        <v>INSERT INTO `stagiaires`(`idStagiaire`, `nomStagiaire`, `prenomStagiaire`, `adresseStagiaire`, `ville`, `codePostal`, `telStagiaire`, `dateEntree`, `SexeStagiaire`, `dateNaissance`, `idFormation`, `idFormateur`, `idHebergement`) VALUES (1,"roblin","lea","12,bd de la liberte","calais",62100,"21345678","2014-09-01","F","1995-01-14",5,2,2);</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="1">
+        <v>62100</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H3" s="2">
+        <v>41883</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J3" s="2">
+        <v>34436</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="N3" t="str">
+        <f t="shared" ref="N3:N19" si="0">TEXT(H3,"aaaa-mm-jj")</f>
+        <v>2014-09-01</v>
+      </c>
+      <c r="O3" t="str">
+        <f t="shared" ref="O3:O19" si="1">TEXT(J3,"aaaa-mm-jj")</f>
+        <v>1994-04-12</v>
+      </c>
+      <c r="P3">
+        <f>VLOOKUP(K3,Formations!$A$1:$B$6,2,0)</f>
+        <v>3</v>
+      </c>
+      <c r="Q3">
+        <f>VLOOKUP(L3,Formateurs!$B$2:$C$5,2,0)</f>
+        <v>1</v>
+      </c>
+      <c r="R3">
+        <f>VLOOKUP(M3,Hebergements!$A$2:$B$3,2,0)</f>
+        <v>2</v>
+      </c>
+      <c r="S3" t="str">
+        <f t="shared" ref="S3:S19" si="2">"INSERT INTO `stagiaires`(`idStagiaire`, `nomStagiaire`, `prenomStagiaire`, `adresseStagiaire`, `ville`, `codePostal`, `telStagiaire`, `dateEntree`, `SexeStagiaire`, `dateNaissance`, `idFormation`, `idFormateur`, `idHebergement`) VALUES ("&amp;A3&amp;","""&amp;B3&amp;""","""&amp;C3&amp;""","""&amp;D3&amp;""","""&amp;E3&amp;""","&amp;F3&amp;","""&amp;G3&amp;""","""&amp;N3&amp;""","""&amp;I3&amp;""","""&amp;O3&amp;""","&amp;P3&amp;","&amp;Q3&amp;","&amp;R3&amp;");"</f>
+        <v>INSERT INTO `stagiaires`(`idStagiaire`, `nomStagiaire`, `prenomStagiaire`, `adresseStagiaire`, `ville`, `codePostal`, `telStagiaire`, `dateEntree`, `SexeStagiaire`, `dateNaissance`, `idFormation`, `idFormateur`, `idHebergement`) VALUES (2,"macarthur","leon","121,bd gambetta","calais",62100,"21-30-65-09","2014-09-01","M","1994-04-12",3,1,2);</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F4" s="1">
+        <v>62200</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H4" s="2">
+        <v>41883</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J4" s="2">
+        <v>35501</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="N4" t="str">
+        <f t="shared" si="0"/>
+        <v>2014-09-01</v>
+      </c>
+      <c r="O4" t="str">
+        <f t="shared" si="1"/>
+        <v>1997-03-12</v>
+      </c>
+      <c r="P4">
+        <f>VLOOKUP(K4,Formations!$A$1:$B$6,2,0)</f>
+        <v>2</v>
+      </c>
+      <c r="Q4">
+        <f>VLOOKUP(L4,Formateurs!$B$2:$C$5,2,0)</f>
+        <v>2</v>
+      </c>
+      <c r="R4">
+        <f>VLOOKUP(M4,Hebergements!$A$2:$B$3,2,0)</f>
+        <v>2</v>
+      </c>
+      <c r="S4" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO `stagiaires`(`idStagiaire`, `nomStagiaire`, `prenomStagiaire`, `adresseStagiaire`, `ville`, `codePostal`, `telStagiaire`, `dateEntree`, `SexeStagiaire`, `dateNaissance`, `idFormation`, `idFormateur`, `idHebergement`) VALUES (3,"minol","luc","9,rue des prairies","boulogne",62200,"21-30-20-10","2014-09-01","M","1997-03-12",2,2,2);</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F5" s="1">
+        <v>62930</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H5" s="2">
+        <v>41883</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J5" s="2">
+        <v>35145</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="N5" t="str">
+        <f t="shared" si="0"/>
+        <v>2014-09-01</v>
+      </c>
+      <c r="O5" t="str">
+        <f t="shared" si="1"/>
+        <v>1996-03-21</v>
+      </c>
+      <c r="P5">
+        <f>VLOOKUP(K5,Formations!$A$1:$B$6,2,0)</f>
+        <v>5</v>
+      </c>
+      <c r="Q5">
+        <f>VLOOKUP(L5,Formateurs!$B$2:$C$5,2,0)</f>
+        <v>4</v>
+      </c>
+      <c r="R5">
+        <f>VLOOKUP(M5,Hebergements!$A$2:$B$3,2,0)</f>
+        <v>2</v>
+      </c>
+      <c r="S5" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO `stagiaires`(`idStagiaire`, `nomStagiaire`, `prenomStagiaire`, `adresseStagiaire`, `ville`, `codePostal`, `telStagiaire`, `dateEntree`, `SexeStagiaire`, `dateNaissance`, `idFormation`, `idFormateur`, `idHebergement`) VALUES (4,"minol","sophie","12,rue des capucines","wimereux",62930,"21-89-04-30","2014-09-01","F","1996-03-21",5,4,2);</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F6" s="1">
+        <v>62300</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H6" s="2">
+        <v>41883</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J6" s="2">
+        <v>34005</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="N6" t="str">
+        <f t="shared" si="0"/>
+        <v>2014-09-01</v>
+      </c>
+      <c r="O6" t="str">
+        <f t="shared" si="1"/>
+        <v>1993-02-05</v>
+      </c>
+      <c r="P6">
+        <f>VLOOKUP(K6,Formations!$A$1:$B$6,2,0)</f>
+        <v>3</v>
+      </c>
+      <c r="Q6">
+        <f>VLOOKUP(L6,Formateurs!$B$2:$C$5,2,0)</f>
+        <v>1</v>
+      </c>
+      <c r="R6">
+        <f>VLOOKUP(M6,Hebergements!$A$2:$B$3,2,0)</f>
+        <v>2</v>
+      </c>
+      <c r="S6" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO `stagiaires`(`idStagiaire`, `nomStagiaire`, `prenomStagiaire`, `adresseStagiaire`, `ville`, `codePostal`, `telStagiaire`, `dateEntree`, `SexeStagiaire`, `dateNaissance`, `idFormation`, `idFormateur`, `idHebergement`) VALUES (5,"minol","marc","67,allee ronde","marcq",62300,"21-90-87-65","2014-09-01","M","1993-02-05",3,1,2);</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F7" s="1">
+        <v>62100</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="H7" s="2">
+        <v>41518</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J7" s="2">
+        <v>35085</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="N7" t="str">
+        <f t="shared" si="0"/>
+        <v>2013-09-01</v>
+      </c>
+      <c r="O7" t="str">
+        <f t="shared" si="1"/>
+        <v>1996-01-21</v>
+      </c>
+      <c r="P7">
+        <f>VLOOKUP(K7,Formations!$A$1:$B$6,2,0)</f>
+        <v>4</v>
+      </c>
+      <c r="Q7">
+        <f>VLOOKUP(L7,Formateurs!$B$2:$C$5,2,0)</f>
+        <v>1</v>
+      </c>
+      <c r="R7">
+        <f>VLOOKUP(M7,Hebergements!$A$2:$B$3,2,0)</f>
+        <v>2</v>
+      </c>
+      <c r="S7" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO `stagiaires`(`idStagiaire`, `nomStagiaire`, `prenomStagiaire`, `adresseStagiaire`, `ville`, `codePostal`, `telStagiaire`, `dateEntree`, `SexeStagiaire`, `dateNaissance`, `idFormation`, `idFormateur`, `idHebergement`) VALUES (6,"vendraux","marc","5,rue de marseille","calais",62100,"21-96-00-09","2013-09-01","M","1996-01-21",4,1,2);</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F8" s="1">
+        <v>62200</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="H8" s="2">
+        <v>41883</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J8" s="2">
+        <v>34788</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="M8" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="N8" t="str">
+        <f t="shared" si="0"/>
+        <v>2014-09-01</v>
+      </c>
+      <c r="O8" t="str">
+        <f t="shared" si="1"/>
+        <v>1995-03-30</v>
+      </c>
+      <c r="P8">
+        <f>VLOOKUP(K8,Formations!$A$1:$B$6,2,0)</f>
+        <v>5</v>
+      </c>
+      <c r="Q8">
+        <f>VLOOKUP(L8,Formateurs!$B$2:$C$5,2,0)</f>
+        <v>2</v>
+      </c>
+      <c r="R8">
+        <f>VLOOKUP(M8,Hebergements!$A$2:$B$3,2,0)</f>
+        <v>2</v>
+      </c>
+      <c r="S8" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO `stagiaires`(`idStagiaire`, `nomStagiaire`, `prenomStagiaire`, `adresseStagiaire`, `ville`, `codePostal`, `telStagiaire`, `dateEntree`, `SexeStagiaire`, `dateNaissance`, `idFormation`, `idFormateur`, `idHebergement`) VALUES (7,"vendermaele","helene","456,rue de paris","boulogne",62200,"21-45-45-60","2014-09-01","F","1995-03-30",5,2,2);</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F9" s="1">
+        <v>59300</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="H9" s="2">
+        <v>41883</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J9" s="2">
+        <v>34475</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="M9" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="N9" t="str">
+        <f t="shared" si="0"/>
+        <v>2014-09-01</v>
+      </c>
+      <c r="O9" t="str">
+        <f t="shared" si="1"/>
+        <v>1994-05-21</v>
+      </c>
+      <c r="P9">
+        <f>VLOOKUP(K9,Formations!$A$1:$B$6,2,0)</f>
+        <v>1</v>
+      </c>
+      <c r="Q9">
+        <f>VLOOKUP(L9,Formateurs!$B$2:$C$5,2,0)</f>
+        <v>3</v>
+      </c>
+      <c r="R9">
+        <f>VLOOKUP(M9,Hebergements!$A$2:$B$3,2,0)</f>
+        <v>1</v>
+      </c>
+      <c r="S9" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO `stagiaires`(`idStagiaire`, `nomStagiaire`, `prenomStagiaire`, `adresseStagiaire`, `ville`, `codePostal`, `telStagiaire`, `dateEntree`, `SexeStagiaire`, `dateNaissance`, `idFormation`, `idFormateur`, `idHebergement`) VALUES (8,"besson","loic","3,allee carpentier","dunkerque",59300,"28-90-89-78","2014-09-01","M","1994-05-21",1,3,1);</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F10" s="1">
+        <v>59870</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" s="2">
+        <v>41518</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J10" s="2">
+        <v>33981</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="L10" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="M10" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="N10" t="str">
+        <f t="shared" si="0"/>
+        <v>2013-09-01</v>
+      </c>
+      <c r="O10" t="str">
+        <f t="shared" si="1"/>
+        <v>1993-01-12</v>
+      </c>
+      <c r="P10">
+        <f>VLOOKUP(K10,Formations!$A$1:$B$6,2,0)</f>
+        <v>1</v>
+      </c>
+      <c r="Q10">
+        <f>VLOOKUP(L10,Formateurs!$B$2:$C$5,2,0)</f>
+        <v>3</v>
+      </c>
+      <c r="R10">
+        <f>VLOOKUP(M10,Hebergements!$A$2:$B$3,2,0)</f>
+        <v>1</v>
+      </c>
+      <c r="S10" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO `stagiaires`(`idStagiaire`, `nomStagiaire`, `prenomStagiaire`, `adresseStagiaire`, `ville`, `codePostal`, `telStagiaire`, `dateEntree`, `SexeStagiaire`, `dateNaissance`, `idFormation`, `idFormateur`, `idHebergement`) VALUES (9,"godart","jean-paul","123,rue de lens","marck",59870,"28-09-87-65","2013-09-01","M","1993-01-12",1,3,1);</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F11" s="1">
+        <v>59100</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="H11" s="2">
+        <v>41883</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J11" s="2">
+        <v>35167</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="L11" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="M11" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="N11" t="str">
+        <f t="shared" si="0"/>
+        <v>2014-09-01</v>
+      </c>
+      <c r="O11" t="str">
+        <f t="shared" si="1"/>
+        <v>1996-04-12</v>
+      </c>
+      <c r="P11">
+        <f>VLOOKUP(K11,Formations!$A$1:$B$6,2,0)</f>
+        <v>2</v>
+      </c>
+      <c r="Q11">
+        <f>VLOOKUP(L11,Formateurs!$B$2:$C$5,2,0)</f>
+        <v>2</v>
+      </c>
+      <c r="R11">
+        <f>VLOOKUP(M11,Hebergements!$A$2:$B$3,2,0)</f>
+        <v>2</v>
+      </c>
+      <c r="S11" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO `stagiaires`(`idStagiaire`, `nomStagiaire`, `prenomStagiaire`, `adresseStagiaire`, `ville`, `codePostal`, `telStagiaire`, `dateEntree`, `SexeStagiaire`, `dateNaissance`, `idFormation`, `idFormateur`, `idHebergement`) VALUES (10,"beaux","marie","1,allee des cygnes","dunkerque",59100,"21-30-87-90","2014-09-01","F","1996-04-12",2,2,2);</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F12" s="1">
+        <v>62200</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="H12" s="2">
+        <v>41883</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J12" s="2">
+        <v>35263</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="L12" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="M12" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="N12" t="str">
+        <f t="shared" si="0"/>
+        <v>2014-09-01</v>
+      </c>
+      <c r="O12" t="str">
+        <f t="shared" si="1"/>
+        <v>1996-07-17</v>
+      </c>
+      <c r="P12">
+        <f>VLOOKUP(K12,Formations!$A$1:$B$6,2,0)</f>
+        <v>1</v>
+      </c>
+      <c r="Q12">
+        <f>VLOOKUP(L12,Formateurs!$B$2:$C$5,2,0)</f>
+        <v>3</v>
+      </c>
+      <c r="R12">
+        <f>VLOOKUP(M12,Hebergements!$A$2:$B$3,2,0)</f>
+        <v>2</v>
+      </c>
+      <c r="S12" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO `stagiaires`(`idStagiaire`, `nomStagiaire`, `prenomStagiaire`, `adresseStagiaire`, `ville`, `codePostal`, `telStagiaire`, `dateEntree`, `SexeStagiaire`, `dateNaissance`, `idFormation`, `idFormateur`, `idHebergement`) VALUES (11,"turini","elsa","12,route de paris","boulogne",62200,"21-32-47-97","2014-09-01","F","1996-07-17",1,3,2);</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F13" s="1">
+        <v>62200</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="H13" s="2">
+        <v>41883</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J13" s="2">
+        <v>35536</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="L13" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="M13" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="N13" t="str">
+        <f t="shared" si="0"/>
+        <v>2014-09-01</v>
+      </c>
+      <c r="O13" t="str">
+        <f t="shared" si="1"/>
+        <v>1997-04-16</v>
+      </c>
+      <c r="P13">
+        <f>VLOOKUP(K13,Formations!$A$1:$B$6,2,0)</f>
+        <v>3</v>
+      </c>
+      <c r="Q13">
+        <f>VLOOKUP(L13,Formateurs!$B$2:$C$5,2,0)</f>
+        <v>1</v>
+      </c>
+      <c r="R13">
+        <f>VLOOKUP(M13,Hebergements!$A$2:$B$3,2,0)</f>
+        <v>1</v>
+      </c>
+      <c r="S13" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO `stagiaires`(`idStagiaire`, `nomStagiaire`, `prenomStagiaire`, `adresseStagiaire`, `ville`, `codePostal`, `telStagiaire`, `dateEntree`, `SexeStagiaire`, `dateNaissance`, `idFormation`, `idFormateur`, `idHebergement`) VALUES (12,"torelle","elise","123,vallee du denacre","boulogne",62200,"21-67-86-90","2014-09-01","F","1997-04-16",3,1,1);</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F14" s="1">
+        <v>62100</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="H14" s="2">
+        <v>41883</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J14" s="2">
+        <v>35142</v>
+      </c>
+      <c r="K14" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="L14" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="M14" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="N14" t="str">
+        <f t="shared" si="0"/>
+        <v>2014-09-01</v>
+      </c>
+      <c r="O14" t="str">
+        <f t="shared" si="1"/>
+        <v>1996-03-18</v>
+      </c>
+      <c r="P14">
+        <f>VLOOKUP(K14,Formations!$A$1:$B$6,2,0)</f>
+        <v>4</v>
+      </c>
+      <c r="Q14">
+        <f>VLOOKUP(L14,Formateurs!$B$2:$C$5,2,0)</f>
+        <v>1</v>
+      </c>
+      <c r="R14">
+        <f>VLOOKUP(M14,Hebergements!$A$2:$B$3,2,0)</f>
+        <v>1</v>
+      </c>
+      <c r="S14" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO `stagiaires`(`idStagiaire`, `nomStagiaire`, `prenomStagiaire`, `adresseStagiaire`, `ville`, `codePostal`, `telStagiaire`, `dateEntree`, `SexeStagiaire`, `dateNaissance`, `idFormation`, `idFormateur`, `idHebergement`) VALUES (13,"pharis","pierre","12,avenue foch","calais",62100,"21-21-85-90","2014-09-01","M","1996-03-18",4,1,1);</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F15" s="1">
+        <v>62100</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="H15" s="2">
+        <v>41883</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J15" s="2">
+        <v>34720</v>
+      </c>
+      <c r="K15" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="L15" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="M15" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="N15" t="str">
+        <f t="shared" si="0"/>
+        <v>2014-09-01</v>
+      </c>
+      <c r="O15" t="str">
+        <f t="shared" si="1"/>
+        <v>1995-01-21</v>
+      </c>
+      <c r="P15">
+        <f>VLOOKUP(K15,Formations!$A$1:$B$6,2,0)</f>
+        <v>3</v>
+      </c>
+      <c r="Q15">
+        <f>VLOOKUP(L15,Formateurs!$B$2:$C$5,2,0)</f>
+        <v>4</v>
+      </c>
+      <c r="R15">
+        <f>VLOOKUP(M15,Hebergements!$A$2:$B$3,2,0)</f>
+        <v>1</v>
+      </c>
+      <c r="S15" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO `stagiaires`(`idStagiaire`, `nomStagiaire`, `prenomStagiaire`, `adresseStagiaire`, `ville`, `codePostal`, `telStagiaire`, `dateEntree`, `SexeStagiaire`, `dateNaissance`, `idFormation`, `idFormateur`, `idHebergement`) VALUES (14,"ephyre","luc","12,rue de lyon","calais",62100,"21-35-32-90","2014-09-01","M","1995-01-21",3,4,1);</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F16" s="1">
+        <v>62200</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="H16" s="2">
+        <v>41883</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J16" s="2">
+        <v>34473</v>
+      </c>
+      <c r="K16" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="L16" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="M16" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="N16" t="str">
+        <f t="shared" si="0"/>
+        <v>2014-09-01</v>
+      </c>
+      <c r="O16" t="str">
+        <f t="shared" si="1"/>
+        <v>1994-05-19</v>
+      </c>
+      <c r="P16">
+        <f>VLOOKUP(K16,Formations!$A$1:$B$6,2,0)</f>
+        <v>3</v>
+      </c>
+      <c r="Q16">
+        <f>VLOOKUP(L16,Formateurs!$B$2:$C$5,2,0)</f>
+        <v>1</v>
+      </c>
+      <c r="R16">
+        <f>VLOOKUP(M16,Hebergements!$A$2:$B$3,2,0)</f>
+        <v>2</v>
+      </c>
+      <c r="S16" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO `stagiaires`(`idStagiaire`, `nomStagiaire`, `prenomStagiaire`, `adresseStagiaire`, `ville`, `codePostal`, `telStagiaire`, `dateEntree`, `SexeStagiaire`, `dateNaissance`, `idFormation`, `idFormateur`, `idHebergement`) VALUES (15,"leclercq","jules","12,allee des ravins","boulogne",62200,"21-36-71-92","2014-09-01","M","1994-05-19",3,1,2);</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F17" s="1">
+        <v>62200</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="H17" s="2">
+        <v>41883</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J17" s="2">
+        <v>35371</v>
+      </c>
+      <c r="K17" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="L17" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="M17" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="N17" t="str">
+        <f t="shared" si="0"/>
+        <v>2014-09-01</v>
+      </c>
+      <c r="O17" t="str">
+        <f t="shared" si="1"/>
+        <v>1996-11-02</v>
+      </c>
+      <c r="P17">
+        <f>VLOOKUP(K17,Formations!$A$1:$B$6,2,0)</f>
+        <v>2</v>
+      </c>
+      <c r="Q17">
+        <f>VLOOKUP(L17,Formateurs!$B$2:$C$5,2,0)</f>
+        <v>2</v>
+      </c>
+      <c r="R17">
+        <f>VLOOKUP(M17,Hebergements!$A$2:$B$3,2,0)</f>
+        <v>2</v>
+      </c>
+      <c r="S17" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO `stagiaires`(`idStagiaire`, `nomStagiaire`, `prenomStagiaire`, `adresseStagiaire`, `ville`, `codePostal`, `telStagiaire`, `dateEntree`, `SexeStagiaire`, `dateNaissance`, `idFormation`, `idFormateur`, `idHebergement`) VALUES (16,"dupont","luc","21,avenue monsigny","calais",62200,"21-21-34-99","2014-09-01","M","1996-11-02",2,2,2);</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F18" s="1">
+        <v>62930</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="H18" s="2">
+        <v>41883</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J18" s="2">
+        <v>35381</v>
+      </c>
+      <c r="K18" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="L18" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="M18" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="N18" t="str">
+        <f t="shared" si="0"/>
+        <v>2014-09-01</v>
+      </c>
+      <c r="O18" t="str">
+        <f t="shared" si="1"/>
+        <v>1996-11-12</v>
+      </c>
+      <c r="P18">
+        <f>VLOOKUP(K18,Formations!$A$1:$B$6,2,0)</f>
+        <v>5</v>
+      </c>
+      <c r="Q18">
+        <f>VLOOKUP(L18,Formateurs!$B$2:$C$5,2,0)</f>
+        <v>4</v>
+      </c>
+      <c r="R18">
+        <f>VLOOKUP(M18,Hebergements!$A$2:$B$3,2,0)</f>
+        <v>1</v>
+      </c>
+      <c r="S18" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO `stagiaires`(`idStagiaire`, `nomStagiaire`, `prenomStagiaire`, `adresseStagiaire`, `ville`, `codePostal`, `telStagiaire`, `dateEntree`, `SexeStagiaire`, `dateNaissance`, `idFormation`, `idFormateur`, `idHebergement`) VALUES (17,"marke","loic","312,route de paris","wimereux",62930,"21-87-87-71","2014-09-01","M","1996-11-12",5,4,1);</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F19" s="1">
+        <v>59100</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="H19" s="2">
+        <v>41883</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J19" s="2">
+        <v>35523</v>
+      </c>
+      <c r="K19" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="L19" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="M19" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="N19" t="str">
+        <f t="shared" si="0"/>
+        <v>2014-09-01</v>
+      </c>
+      <c r="O19" t="str">
+        <f t="shared" si="1"/>
         <v>1997-04-03</v>
       </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="K27" s="10">
-        <v>44228</v>
-      </c>
-      <c r="L27" t="str">
-        <f>"insert " &amp; YEAR(K27) &amp;"-" &amp; MONTH(K27) &amp; "-" &amp; DAY(K27)</f>
-        <v>insert 2021-2-1</v>
+      <c r="P19">
+        <f>VLOOKUP(K19,Formations!$A$1:$B$6,2,0)</f>
+        <v>2</v>
+      </c>
+      <c r="Q19">
+        <f>VLOOKUP(L19,Formateurs!$B$2:$C$5,2,0)</f>
+        <v>4</v>
+      </c>
+      <c r="R19">
+        <f>VLOOKUP(M19,Hebergements!$A$2:$B$3,2,0)</f>
+        <v>1</v>
+      </c>
+      <c r="S19" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO `stagiaires`(`idStagiaire`, `nomStagiaire`, `prenomStagiaire`, `adresseStagiaire`, `ville`, `codePostal`, `telStagiaire`, `dateEntree`, `SexeStagiaire`, `dateNaissance`, `idFormation`, `idFormateur`, `idHebergement`) VALUES (18,"dewa","leon","121,allee des eglantines","dunkerque",59100,"28-30-87-90","2014-09-01","M","1997-04-03",2,4,1);</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="L27" s="10"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.85546875" style="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.28515625" style="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.85546875" style="11" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12" style="11" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="36.140625" style="11" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.42578125" style="11"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="C2" s="11">
+        <f>VLOOKUP(A2,Formations!$A$2:$B$6,2,0)</f>
+        <v>5</v>
+      </c>
+      <c r="D2" s="11">
+        <f>VLOOKUP(B2,Formateurs!$B$2:$C$5,2,0)</f>
+        <v>2</v>
+      </c>
+      <c r="E2" s="11" t="str">
+        <f>"insert into  animations values(null,"&amp;D2&amp;","&amp;C2&amp;");"</f>
+        <v>insert into  animations values(null,2,5);</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="C3" s="11">
+        <f>VLOOKUP(A3,Formations!$A$2:$B$6,2,0)</f>
+        <v>3</v>
+      </c>
+      <c r="D3" s="11">
+        <f>VLOOKUP(B3,Formateurs!$B$2:$C$5,2,0)</f>
+        <v>1</v>
+      </c>
+      <c r="E3" s="11" t="str">
+        <f t="shared" ref="E3:E9" si="0">"insert into  animations values(null,"&amp;D3&amp;","&amp;C3&amp;");"</f>
+        <v>insert into  animations values(null,1,3);</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="C4" s="11">
+        <f>VLOOKUP(A4,Formations!$A$2:$B$6,2,0)</f>
+        <v>2</v>
+      </c>
+      <c r="D4" s="11">
+        <f>VLOOKUP(B4,Formateurs!$B$2:$C$5,2,0)</f>
+        <v>2</v>
+      </c>
+      <c r="E4" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into  animations values(null,2,2);</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="C5" s="11">
+        <f>VLOOKUP(A5,Formations!$A$2:$B$6,2,0)</f>
+        <v>5</v>
+      </c>
+      <c r="D5" s="11">
+        <f>VLOOKUP(B5,Formateurs!$B$2:$C$5,2,0)</f>
+        <v>4</v>
+      </c>
+      <c r="E5" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into  animations values(null,4,5);</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="B6" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="C6" s="11">
+        <f>VLOOKUP(A6,Formations!$A$2:$B$6,2,0)</f>
+        <v>4</v>
+      </c>
+      <c r="D6" s="11">
+        <f>VLOOKUP(B6,Formateurs!$B$2:$C$5,2,0)</f>
+        <v>1</v>
+      </c>
+      <c r="E6" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into  animations values(null,1,4);</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="B7" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="C7" s="11">
+        <f>VLOOKUP(A7,Formations!$A$2:$B$6,2,0)</f>
+        <v>1</v>
+      </c>
+      <c r="D7" s="11">
+        <f>VLOOKUP(B7,Formateurs!$B$2:$C$5,2,0)</f>
+        <v>3</v>
+      </c>
+      <c r="E7" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into  animations values(null,3,1);</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="C8" s="11">
+        <f>VLOOKUP(A8,Formations!$A$2:$B$6,2,0)</f>
+        <v>3</v>
+      </c>
+      <c r="D8" s="11">
+        <f>VLOOKUP(B8,Formateurs!$B$2:$C$5,2,0)</f>
+        <v>4</v>
+      </c>
+      <c r="E8" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into  animations values(null,4,3);</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="C9" s="11">
+        <f>VLOOKUP(A9,Formations!$A$2:$B$6,2,0)</f>
+        <v>2</v>
+      </c>
+      <c r="D9" s="11">
+        <f>VLOOKUP(B9,Formateurs!$B$2:$C$5,2,0)</f>
+        <v>4</v>
+      </c>
+      <c r="E9" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into  animations values(null,4,2);</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>120</v>
+      </c>
+      <c r="C2" t="str">
+        <f>"insert into matieres values( "&amp;A2&amp;","""&amp;B2&amp;""");"</f>
+        <v>insert into matieres values( 1,"Math");</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>121</v>
+      </c>
+      <c r="C3" t="str">
+        <f t="shared" ref="C3:C4" si="0">"insert into matieres values( "&amp;A3&amp;","""&amp;B3&amp;""");"</f>
+        <v>insert into matieres values( 2,"Français");</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>122</v>
+      </c>
+      <c r="C4" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into matieres values( 3,"Sport");</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="38" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>123</v>
+      </c>
+      <c r="B1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2" t="str">
+        <f>"insert into constitutions values (null,"&amp;B2&amp;","&amp;C2&amp;");"</f>
+        <v>insert into constitutions values (null,1,1);</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="D3" t="str">
+        <f t="shared" ref="D3:D13" si="0">"insert into constitutions values (null,"&amp;B3&amp;","&amp;C3&amp;");"</f>
+        <v>insert into constitutions values (null,1,2);</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>3</v>
+      </c>
+      <c r="D4" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into constitutions values (null,1,3);</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>2</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into constitutions values (null,2,1);</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>2</v>
+      </c>
+      <c r="C6">
+        <v>2</v>
+      </c>
+      <c r="D6" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into constitutions values (null,2,2);</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>2</v>
+      </c>
+      <c r="C7">
+        <v>3</v>
+      </c>
+      <c r="D7" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into constitutions values (null,2,3);</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>3</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into constitutions values (null,3,1);</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>3</v>
+      </c>
+      <c r="C9">
+        <v>2</v>
+      </c>
+      <c r="D9" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into constitutions values (null,3,2);</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>3</v>
+      </c>
+      <c r="C10">
+        <v>3</v>
+      </c>
+      <c r="D10" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into constitutions values (null,3,3);</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>4</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into constitutions values (null,4,1);</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>4</v>
+      </c>
+      <c r="C12">
+        <v>2</v>
+      </c>
+      <c r="D12" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into constitutions values (null,4,2);</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>4</v>
+      </c>
+      <c r="C13">
+        <v>3</v>
+      </c>
+      <c r="D13" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into constitutions values (null,4,3);</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:P30"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K6" sqref="K6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="11" max="11" width="33.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B1" t="s">
+        <v>113</v>
+      </c>
+      <c r="C1" t="s">
+        <v>118</v>
+      </c>
+      <c r="D1" t="s">
+        <v>125</v>
+      </c>
+      <c r="G1" t="s">
+        <v>124</v>
+      </c>
+      <c r="H1" t="s">
+        <v>113</v>
+      </c>
+      <c r="I1" t="s">
+        <v>118</v>
+      </c>
+      <c r="J1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <f ca="1">RANDBETWEEN(1,18)</f>
+        <v>13</v>
+      </c>
+      <c r="C2">
+        <f ca="1">RANDBETWEEN(1,3)</f>
+        <v>2</v>
+      </c>
+      <c r="D2">
+        <f ca="1">RANDBETWEEN(0,20)</f>
+        <v>12</v>
+      </c>
+      <c r="G2">
+        <v>1</v>
+      </c>
+      <c r="H2">
+        <v>17</v>
+      </c>
+      <c r="I2">
+        <v>1</v>
+      </c>
+      <c r="J2">
+        <v>17</v>
+      </c>
+      <c r="K2" t="str">
+        <f>"insert into suivis values ( "&amp;G2&amp;","&amp;H2&amp;","&amp;I2&amp;","&amp;J2&amp;");"</f>
+        <v>insert into suivis values ( 1,17,1,17);</v>
+      </c>
+      <c r="N2" s="15">
+        <f ca="1">TODAY()</f>
+        <v>44278</v>
+      </c>
+      <c r="O2" s="15">
+        <f ca="1">$N$2+RANDBETWEEN(1,800)</f>
+        <v>44863</v>
+      </c>
+      <c r="P2" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <f ca="1">RANDBETWEEN(1,18)</f>
+        <v>16</v>
+      </c>
+      <c r="C3">
+        <f ca="1">RANDBETWEEN(1,3)</f>
+        <v>3</v>
+      </c>
+      <c r="D3">
+        <f ca="1">RANDBETWEEN(0,20)</f>
+        <v>5</v>
+      </c>
+      <c r="G3">
+        <v>2</v>
+      </c>
+      <c r="H3">
+        <v>3</v>
+      </c>
+      <c r="I3">
+        <v>2</v>
+      </c>
+      <c r="J3">
+        <v>16</v>
+      </c>
+      <c r="K3" t="str">
+        <f t="shared" ref="K3:K26" si="0">"insert into suivis values ( "&amp;G3&amp;","&amp;H3&amp;","&amp;I3&amp;","&amp;J3&amp;");"</f>
+        <v>insert into suivis values ( 2,3,2,16);</v>
+      </c>
+      <c r="O3" s="15">
+        <f t="shared" ref="O3:O22" ca="1" si="1">$N$2+RANDBETWEEN(1,800)</f>
+        <v>44439</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <f ca="1">RANDBETWEEN(1,18)</f>
+        <v>11</v>
+      </c>
+      <c r="C4">
+        <f ca="1">RANDBETWEEN(1,3)</f>
+        <v>3</v>
+      </c>
+      <c r="D4">
+        <f ca="1">RANDBETWEEN(0,20)</f>
+        <v>10</v>
+      </c>
+      <c r="G4">
+        <v>3</v>
+      </c>
+      <c r="H4">
+        <v>5</v>
+      </c>
+      <c r="I4">
+        <v>3</v>
+      </c>
+      <c r="J4">
+        <v>4</v>
+      </c>
+      <c r="K4" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into suivis values ( 3,5,3,4);</v>
+      </c>
+      <c r="O4" s="15">
+        <f t="shared" ca="1" si="1"/>
+        <v>44375</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <f ca="1">RANDBETWEEN(1,18)</f>
+        <v>7</v>
+      </c>
+      <c r="C5">
+        <f ca="1">RANDBETWEEN(1,3)</f>
+        <v>2</v>
+      </c>
+      <c r="D5">
+        <f ca="1">RANDBETWEEN(0,20)</f>
+        <v>19</v>
+      </c>
+      <c r="G5">
+        <v>4</v>
+      </c>
+      <c r="H5">
+        <v>18</v>
+      </c>
+      <c r="I5">
+        <v>1</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into suivis values ( 4,18,1,0);</v>
+      </c>
+      <c r="O5" s="15">
+        <f t="shared" ca="1" si="1"/>
+        <v>44854</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <f ca="1">RANDBETWEEN(1,18)</f>
+        <v>8</v>
+      </c>
+      <c r="C6">
+        <f ca="1">RANDBETWEEN(1,3)</f>
+        <v>3</v>
+      </c>
+      <c r="D6">
+        <f ca="1">RANDBETWEEN(0,20)</f>
+        <v>14</v>
+      </c>
+      <c r="G6">
+        <v>5</v>
+      </c>
+      <c r="H6">
+        <v>10</v>
+      </c>
+      <c r="I6">
+        <v>2</v>
+      </c>
+      <c r="J6">
+        <v>5</v>
+      </c>
+      <c r="K6" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into suivis values ( 5,10,2,5);</v>
+      </c>
+      <c r="O6" s="15">
+        <f t="shared" ca="1" si="1"/>
+        <v>44617</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <f ca="1">RANDBETWEEN(1,18)</f>
+        <v>16</v>
+      </c>
+      <c r="C7">
+        <f ca="1">RANDBETWEEN(1,3)</f>
+        <v>2</v>
+      </c>
+      <c r="D7">
+        <f ca="1">RANDBETWEEN(0,20)</f>
+        <v>13</v>
+      </c>
+      <c r="G7">
+        <v>6</v>
+      </c>
+      <c r="H7">
+        <v>12</v>
+      </c>
+      <c r="I7">
+        <v>2</v>
+      </c>
+      <c r="J7">
+        <v>4</v>
+      </c>
+      <c r="K7" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into suivis values ( 6,12,2,4);</v>
+      </c>
+      <c r="O7" s="15">
+        <f t="shared" ca="1" si="1"/>
+        <v>44741</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <f ca="1">RANDBETWEEN(1,18)</f>
+        <v>8</v>
+      </c>
+      <c r="C8">
+        <f ca="1">RANDBETWEEN(1,3)</f>
+        <v>2</v>
+      </c>
+      <c r="D8">
+        <f ca="1">RANDBETWEEN(0,20)</f>
+        <v>12</v>
+      </c>
+      <c r="G8">
+        <v>7</v>
+      </c>
+      <c r="H8">
+        <v>11</v>
+      </c>
+      <c r="I8">
+        <v>1</v>
+      </c>
+      <c r="J8">
+        <v>8</v>
+      </c>
+      <c r="K8" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into suivis values ( 7,11,1,8);</v>
+      </c>
+      <c r="O8" s="15">
+        <f t="shared" ca="1" si="1"/>
+        <v>44524</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <f ca="1">RANDBETWEEN(1,18)</f>
+        <v>9</v>
+      </c>
+      <c r="C9">
+        <f ca="1">RANDBETWEEN(1,3)</f>
+        <v>2</v>
+      </c>
+      <c r="D9">
+        <f ca="1">RANDBETWEEN(0,20)</f>
+        <v>7</v>
+      </c>
+      <c r="G9">
+        <v>8</v>
+      </c>
+      <c r="H9">
+        <v>1</v>
+      </c>
+      <c r="I9">
+        <v>3</v>
+      </c>
+      <c r="J9">
+        <v>19</v>
+      </c>
+      <c r="K9" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into suivis values ( 8,1,3,19);</v>
+      </c>
+      <c r="O9" s="15">
+        <f t="shared" ca="1" si="1"/>
+        <v>44377</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <f ca="1">RANDBETWEEN(1,18)</f>
+        <v>17</v>
+      </c>
+      <c r="C10">
+        <f ca="1">RANDBETWEEN(1,3)</f>
+        <v>2</v>
+      </c>
+      <c r="D10">
+        <f ca="1">RANDBETWEEN(0,20)</f>
+        <v>10</v>
+      </c>
+      <c r="G10">
+        <v>9</v>
+      </c>
+      <c r="H10">
+        <v>7</v>
+      </c>
+      <c r="I10">
+        <v>1</v>
+      </c>
+      <c r="J10">
+        <v>3</v>
+      </c>
+      <c r="K10" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into suivis values ( 9,7,1,3);</v>
+      </c>
+      <c r="O10" s="15">
+        <f t="shared" ca="1" si="1"/>
+        <v>44642</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <f ca="1">RANDBETWEEN(1,18)</f>
+        <v>17</v>
+      </c>
+      <c r="C11">
+        <f ca="1">RANDBETWEEN(1,3)</f>
+        <v>2</v>
+      </c>
+      <c r="D11">
+        <f ca="1">RANDBETWEEN(0,20)</f>
+        <v>17</v>
+      </c>
+      <c r="G11">
+        <v>10</v>
+      </c>
+      <c r="H11">
+        <v>15</v>
+      </c>
+      <c r="I11">
+        <v>3</v>
+      </c>
+      <c r="J11">
+        <v>17</v>
+      </c>
+      <c r="K11" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into suivis values ( 10,15,3,17);</v>
+      </c>
+      <c r="O11" s="15">
+        <f t="shared" ca="1" si="1"/>
+        <v>44983</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <f ca="1">RANDBETWEEN(1,18)</f>
+        <v>4</v>
+      </c>
+      <c r="C12">
+        <f ca="1">RANDBETWEEN(1,3)</f>
+        <v>1</v>
+      </c>
+      <c r="D12">
+        <f ca="1">RANDBETWEEN(0,20)</f>
+        <v>10</v>
+      </c>
+      <c r="G12">
+        <v>11</v>
+      </c>
+      <c r="H12">
+        <v>2</v>
+      </c>
+      <c r="I12">
+        <v>3</v>
+      </c>
+      <c r="J12">
+        <v>11</v>
+      </c>
+      <c r="K12" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into suivis values ( 11,2,3,11);</v>
+      </c>
+      <c r="O12" s="15">
+        <f t="shared" ca="1" si="1"/>
+        <v>44790</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <f ca="1">RANDBETWEEN(1,18)</f>
+        <v>3</v>
+      </c>
+      <c r="C13">
+        <f ca="1">RANDBETWEEN(1,3)</f>
+        <v>3</v>
+      </c>
+      <c r="D13">
+        <f ca="1">RANDBETWEEN(0,20)</f>
+        <v>19</v>
+      </c>
+      <c r="G13">
+        <v>12</v>
+      </c>
+      <c r="H13">
+        <v>16</v>
+      </c>
+      <c r="I13">
+        <v>3</v>
+      </c>
+      <c r="J13">
+        <v>7</v>
+      </c>
+      <c r="K13" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into suivis values ( 12,16,3,7);</v>
+      </c>
+      <c r="O13" s="15">
+        <f t="shared" ca="1" si="1"/>
+        <v>44648</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <f ca="1">RANDBETWEEN(1,18)</f>
+        <v>4</v>
+      </c>
+      <c r="C14">
+        <f ca="1">RANDBETWEEN(1,3)</f>
+        <v>1</v>
+      </c>
+      <c r="D14">
+        <f ca="1">RANDBETWEEN(0,20)</f>
+        <v>12</v>
+      </c>
+      <c r="G14">
+        <v>13</v>
+      </c>
+      <c r="H14">
+        <v>17</v>
+      </c>
+      <c r="I14">
+        <v>3</v>
+      </c>
+      <c r="J14">
+        <v>9</v>
+      </c>
+      <c r="K14" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into suivis values ( 13,17,3,9);</v>
+      </c>
+      <c r="O14" s="15">
+        <f t="shared" ca="1" si="1"/>
+        <v>44561</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <f ca="1">RANDBETWEEN(1,18)</f>
+        <v>2</v>
+      </c>
+      <c r="C15">
+        <f ca="1">RANDBETWEEN(1,3)</f>
+        <v>1</v>
+      </c>
+      <c r="D15">
+        <f ca="1">RANDBETWEEN(0,20)</f>
+        <v>7</v>
+      </c>
+      <c r="G15">
+        <v>14</v>
+      </c>
+      <c r="H15">
+        <v>11</v>
+      </c>
+      <c r="I15">
+        <v>2</v>
+      </c>
+      <c r="J15">
+        <v>16</v>
+      </c>
+      <c r="K15" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into suivis values ( 14,11,2,16);</v>
+      </c>
+      <c r="O15" s="15">
+        <f t="shared" ca="1" si="1"/>
+        <v>44329</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <f ca="1">RANDBETWEEN(1,18)</f>
+        <v>7</v>
+      </c>
+      <c r="C16">
+        <f ca="1">RANDBETWEEN(1,3)</f>
+        <v>2</v>
+      </c>
+      <c r="D16">
+        <f ca="1">RANDBETWEEN(0,20)</f>
+        <v>14</v>
+      </c>
+      <c r="G16">
+        <v>16</v>
+      </c>
+      <c r="H16">
+        <v>10</v>
+      </c>
+      <c r="I16">
+        <v>1</v>
+      </c>
+      <c r="J16">
+        <v>15</v>
+      </c>
+      <c r="K16" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into suivis values ( 16,10,1,15);</v>
+      </c>
+      <c r="O16" s="15">
+        <f t="shared" ca="1" si="1"/>
+        <v>44398</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <f ca="1">RANDBETWEEN(1,18)</f>
+        <v>1</v>
+      </c>
+      <c r="C17">
+        <f ca="1">RANDBETWEEN(1,3)</f>
+        <v>3</v>
+      </c>
+      <c r="D17">
+        <f ca="1">RANDBETWEEN(0,20)</f>
+        <v>6</v>
+      </c>
+      <c r="G17">
+        <v>17</v>
+      </c>
+      <c r="H17">
+        <v>15</v>
+      </c>
+      <c r="I17">
+        <v>2</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into suivis values ( 17,15,2,0);</v>
+      </c>
+      <c r="O17" s="15">
+        <f t="shared" ca="1" si="1"/>
+        <v>44740</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18">
+        <f ca="1">RANDBETWEEN(1,18)</f>
+        <v>9</v>
+      </c>
+      <c r="C18">
+        <f ca="1">RANDBETWEEN(1,3)</f>
+        <v>3</v>
+      </c>
+      <c r="D18">
+        <f ca="1">RANDBETWEEN(0,20)</f>
+        <v>14</v>
+      </c>
+      <c r="G18">
+        <v>18</v>
+      </c>
+      <c r="H18">
+        <v>18</v>
+      </c>
+      <c r="I18">
+        <v>2</v>
+      </c>
+      <c r="J18">
+        <v>4</v>
+      </c>
+      <c r="K18" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into suivis values ( 18,18,2,4);</v>
+      </c>
+      <c r="O18" s="15">
+        <f t="shared" ca="1" si="1"/>
+        <v>44594</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19">
+        <f ca="1">RANDBETWEEN(1,18)</f>
+        <v>10</v>
+      </c>
+      <c r="C19">
+        <f ca="1">RANDBETWEEN(1,3)</f>
+        <v>1</v>
+      </c>
+      <c r="D19">
+        <f ca="1">RANDBETWEEN(0,20)</f>
+        <v>15</v>
+      </c>
+      <c r="G19">
+        <v>20</v>
+      </c>
+      <c r="H19">
+        <v>14</v>
+      </c>
+      <c r="I19">
+        <v>2</v>
+      </c>
+      <c r="J19">
+        <v>14</v>
+      </c>
+      <c r="K19" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into suivis values ( 20,14,2,14);</v>
+      </c>
+      <c r="O19" s="15">
+        <f t="shared" ca="1" si="1"/>
+        <v>44636</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20">
+        <f ca="1">RANDBETWEEN(1,18)</f>
+        <v>5</v>
+      </c>
+      <c r="C20">
+        <f ca="1">RANDBETWEEN(1,3)</f>
+        <v>2</v>
+      </c>
+      <c r="D20">
+        <f ca="1">RANDBETWEEN(0,20)</f>
+        <v>10</v>
+      </c>
+      <c r="G20">
+        <v>22</v>
+      </c>
+      <c r="H20">
+        <v>15</v>
+      </c>
+      <c r="I20">
+        <v>1</v>
+      </c>
+      <c r="J20">
+        <v>20</v>
+      </c>
+      <c r="K20" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into suivis values ( 22,15,1,20);</v>
+      </c>
+      <c r="O20" s="15">
+        <f t="shared" ca="1" si="1"/>
+        <v>44563</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21">
+        <f ca="1">RANDBETWEEN(1,18)</f>
+        <v>4</v>
+      </c>
+      <c r="C21">
+        <f ca="1">RANDBETWEEN(1,3)</f>
+        <v>3</v>
+      </c>
+      <c r="D21">
+        <f ca="1">RANDBETWEEN(0,20)</f>
+        <v>9</v>
+      </c>
+      <c r="G21">
+        <v>23</v>
+      </c>
+      <c r="H21">
+        <v>3</v>
+      </c>
+      <c r="I21">
+        <v>1</v>
+      </c>
+      <c r="J21">
+        <v>12</v>
+      </c>
+      <c r="K21" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into suivis values ( 23,3,1,12);</v>
+      </c>
+      <c r="O21" s="15">
+        <f t="shared" ca="1" si="1"/>
+        <v>44895</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22">
+        <f ca="1">RANDBETWEEN(1,18)</f>
+        <v>18</v>
+      </c>
+      <c r="C22">
+        <f ca="1">RANDBETWEEN(1,3)</f>
+        <v>2</v>
+      </c>
+      <c r="D22">
+        <f ca="1">RANDBETWEEN(0,20)</f>
+        <v>12</v>
+      </c>
+      <c r="G22">
+        <v>24</v>
+      </c>
+      <c r="H22">
+        <v>6</v>
+      </c>
+      <c r="I22">
+        <v>1</v>
+      </c>
+      <c r="J22">
+        <v>10</v>
+      </c>
+      <c r="K22" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into suivis values ( 24,6,1,10);</v>
+      </c>
+      <c r="O22" s="15">
+        <f t="shared" ca="1" si="1"/>
+        <v>44710</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23">
+        <f ca="1">RANDBETWEEN(1,18)</f>
+        <v>8</v>
+      </c>
+      <c r="C23">
+        <f ca="1">RANDBETWEEN(1,3)</f>
+        <v>1</v>
+      </c>
+      <c r="D23">
+        <f ca="1">RANDBETWEEN(0,20)</f>
+        <v>6</v>
+      </c>
+      <c r="G23">
+        <v>25</v>
+      </c>
+      <c r="H23">
+        <v>8</v>
+      </c>
+      <c r="I23">
+        <v>3</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+      <c r="K23" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into suivis values ( 25,8,3,0);</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24">
+        <f ca="1">RANDBETWEEN(1,18)</f>
+        <v>11</v>
+      </c>
+      <c r="C24">
+        <f ca="1">RANDBETWEEN(1,3)</f>
+        <v>1</v>
+      </c>
+      <c r="D24">
+        <f ca="1">RANDBETWEEN(0,20)</f>
+        <v>12</v>
+      </c>
+      <c r="G24">
+        <v>26</v>
+      </c>
+      <c r="H24">
+        <v>4</v>
+      </c>
+      <c r="I24">
+        <v>2</v>
+      </c>
+      <c r="J24">
+        <v>6</v>
+      </c>
+      <c r="K24" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into suivis values ( 26,4,2,6);</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25">
+        <f ca="1">RANDBETWEEN(1,18)</f>
+        <v>18</v>
+      </c>
+      <c r="C25">
+        <f ca="1">RANDBETWEEN(1,3)</f>
+        <v>1</v>
+      </c>
+      <c r="D25">
+        <f ca="1">RANDBETWEEN(0,20)</f>
+        <v>9</v>
+      </c>
+      <c r="G25">
+        <v>27</v>
+      </c>
+      <c r="H25">
+        <v>5</v>
+      </c>
+      <c r="I25">
+        <v>1</v>
+      </c>
+      <c r="J25">
+        <v>10</v>
+      </c>
+      <c r="K25" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into suivis values ( 27,5,1,10);</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26">
+        <f ca="1">RANDBETWEEN(1,18)</f>
+        <v>13</v>
+      </c>
+      <c r="C26">
+        <f ca="1">RANDBETWEEN(1,3)</f>
+        <v>2</v>
+      </c>
+      <c r="D26">
+        <f ca="1">RANDBETWEEN(0,20)</f>
+        <v>11</v>
+      </c>
+      <c r="G26">
+        <v>29</v>
+      </c>
+      <c r="H26">
+        <v>13</v>
+      </c>
+      <c r="I26">
+        <v>2</v>
+      </c>
+      <c r="J26">
+        <v>8</v>
+      </c>
+      <c r="K26" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into suivis values ( 29,13,2,8);</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27">
+        <f ca="1">RANDBETWEEN(1,18)</f>
+        <v>12</v>
+      </c>
+      <c r="C27">
+        <f ca="1">RANDBETWEEN(1,3)</f>
+        <v>3</v>
+      </c>
+      <c r="D27">
+        <f ca="1">RANDBETWEEN(0,20)</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28">
+        <f ca="1">RANDBETWEEN(1,18)</f>
+        <v>10</v>
+      </c>
+      <c r="C28">
+        <f ca="1">RANDBETWEEN(1,3)</f>
+        <v>2</v>
+      </c>
+      <c r="D28">
+        <f ca="1">RANDBETWEEN(0,20)</f>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29">
+        <f ca="1">RANDBETWEEN(1,18)</f>
+        <v>15</v>
+      </c>
+      <c r="C29">
+        <f ca="1">RANDBETWEEN(1,3)</f>
+        <v>1</v>
+      </c>
+      <c r="D29">
+        <f ca="1">RANDBETWEEN(0,20)</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30">
+        <f ca="1">RANDBETWEEN(1,18)</f>
+        <v>10</v>
+      </c>
+      <c r="C30">
+        <f ca="1">RANDBETWEEN(1,3)</f>
+        <v>1</v>
+      </c>
+      <c r="D30">
+        <f ca="1">RANDBETWEEN(0,20)</f>
+        <v>19</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="41.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="B2" s="11">
+        <v>1</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="D2" s="11">
+        <f>VLOOKUP(C2,Groupes!$A$2:$B$4,2,0)</f>
+        <v>2</v>
+      </c>
+      <c r="E2" t="str">
+        <f>"insert into formations values ("&amp;B2&amp;","""&amp;A2&amp;""","&amp;D2&amp;");"</f>
+        <v>insert into formations values (1,"TSAII",2);</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="B3" s="11">
+        <v>2</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="D3" s="11">
+        <f>VLOOKUP(C3,Groupes!$A$2:$B$4,2,0)</f>
+        <v>3</v>
+      </c>
+      <c r="E3" t="str">
+        <f>"insert into formations values ("&amp;B3&amp;","""&amp;A3&amp;""","&amp;D3&amp;");"</f>
+        <v>insert into formations values (2,"TRTE",3);</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="B4" s="11">
+        <v>3</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="D4" s="11">
+        <f>VLOOKUP(C4,Groupes!$A$2:$B$4,2,0)</f>
+        <v>1</v>
+      </c>
+      <c r="E4" t="str">
+        <f>"insert into formations values ("&amp;B4&amp;","""&amp;A4&amp;""","&amp;D4&amp;");"</f>
+        <v>insert into formations values (3,"DWWM",1);</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="B5" s="11">
+        <v>4</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="D5" s="11">
+        <f>VLOOKUP(C5,Groupes!$A$2:$B$4,2,0)</f>
+        <v>1</v>
+      </c>
+      <c r="E5" t="str">
+        <f>"insert into formations values ("&amp;B5&amp;","""&amp;A5&amp;""","&amp;D5&amp;");"</f>
+        <v>insert into formations values (4,"CDA",1);</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="B6" s="11">
+        <v>5</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="D6" s="11">
+        <f>VLOOKUP(C6,Groupes!$A$2:$B$4,2,0)</f>
+        <v>3</v>
+      </c>
+      <c r="E6" t="str">
+        <f>"insert into formations values ("&amp;B6&amp;","""&amp;A6&amp;""","&amp;D6&amp;");"</f>
+        <v>insert into formations values (5,"TSSR",3);</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="19.42578125" style="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.7109375" style="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="42" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="B2" s="11">
+        <v>1</v>
+      </c>
+      <c r="C2" t="str">
+        <f>"insert into hebergements values ("&amp;B2&amp;","""&amp;A2&amp;""");"</f>
+        <v>insert into hebergements values (1,"AFPA");</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="B3" s="11">
+        <v>2</v>
+      </c>
+      <c r="C3" t="str">
+        <f>"insert into hebergements values ("&amp;B3&amp;","""&amp;A3&amp;""");"</f>
+        <v>insert into hebergements values (2,"AUTRE");</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:C4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.7109375" style="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.28515625" style="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="42.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="B2" s="11">
+        <v>1</v>
+      </c>
+      <c r="C2" t="str">
+        <f>"insert into groupes values ("&amp;B2&amp;",""" &amp; A2&amp;""");"</f>
+        <v>insert into groupes values (1,"Informatique");</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="B3" s="11">
+        <v>2</v>
+      </c>
+      <c r="C3" t="str">
+        <f t="shared" ref="C3:C4" si="0">"insert into groupes values ("&amp;B3&amp;",""" &amp; A3&amp;""");"</f>
+        <v>insert into groupes values (2,"Automatisme");</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="B4" s="11">
+        <v>3</v>
+      </c>
+      <c r="C4" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into groupes values (3,"Reseau");</v>
       </c>
     </row>
   </sheetData>
